--- a/biology/Botanique/Euphorbia_cyparissias/Euphorbia_cyparissias.xlsx
+++ b/biology/Botanique/Euphorbia_cyparissias/Euphorbia_cyparissias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphorbia cyparissias
 L’Euphorbe petit-cyprès ou Euphorbe faux cyprès (Euphorbia cyparissias) est une espèce de plantes à fleurs de la famille des Euphorbiacées. C'est une plante herbacée vivace très commune en France. La sève laiteuse est toxique et provoque des irritations de peau.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante vivace, glabre, de 20 à 50 cm de hauteur, d'un vert clair, à tiges nombreuses, dressées, herbacées, portant de nombreux rameaux stériles sous les ombelles ; souche rampante, émettant des stolons. Les feuilles des tiges fertiles sont étroitement linéaires (1-3 mm sur 1-4 cm), entières, à bord un peu recourbé ; celles des rameaux stériles sont étroites et fines, rapprochées en pinceaux. Ombelle à 6-20 rayons grêles, bifurqués ; les bractées florales, réniformes, sont jaunes à la floraison, puis rougeâtres. La floraison a lieu entre avril et juin. Les glandes jaunes de l'involucre forment un croissant, à cornes courtes. Le fruit est une capsule glabre de 3-4 mm, à coques chagrinées. Les graines sont ovoïdes, brunes. Plante des lieux cultivés, bord des chemins, friches.
 </t>
@@ -544,7 +558,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : jaune
@@ -559,7 +575,7 @@
 Habitat et répartition
 Habitat type : pelouses basophiles médioeuropéennes.
 Elle se retrouve nativement dans l'ensemble de l'Europe jusque en Russie central.
-Elle est invasive en Amérique de Nord, au Japon et dans le nord de la Chine[1].
+Elle est invasive en Amérique de Nord, au Japon et dans le nord de la Chine.
 Données d'après : Julve, Ph., 1998 ff. - Baseflor. Index botanique, écologique et chorologique de la flore de France. Version : 23 avril 2004.
 </t>
         </is>
